--- a/Semantics_Gruppenpunkte.xlsx
+++ b/Semantics_Gruppenpunkte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morde\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Morde\Desktop\Semantic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Semantics and Verification of Software:</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Sheet 1</t>
+  </si>
+  <si>
+    <t>Sheet 2</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F414943-DD16-41B2-BCE0-82F99D2998E9}">
-  <dimension ref="C2:H32"/>
+  <dimension ref="C2:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,176 +402,236 @@
     <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>313294</v>
       </c>
       <c r="H8">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>334449</v>
       </c>
       <c r="H9">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>351804</v>
       </c>
       <c r="H10">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>318712</v>
       </c>
       <c r="H12">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>384051</v>
       </c>
       <c r="H13">
         <v>7.75</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>384816</v>
       </c>
       <c r="H15">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>382962</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>290510</v>
       </c>
       <c r="H18">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>308799</v>
       </c>
       <c r="H19">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>331621</v>
       </c>
       <c r="H20">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>323838</v>
       </c>
       <c r="H22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>322364</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>322706</v>
       </c>
       <c r="H24">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>331091</v>
       </c>
       <c r="H26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>345068</v>
       </c>
       <c r="H27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>379672</v>
       </c>
       <c r="H28">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>332143</v>
       </c>
       <c r="H30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>334202</v>
       </c>
       <c r="H31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>335124</v>
       </c>
       <c r="H32">
         <v>8</v>
+      </c>
+      <c r="I32">
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/Semantics_Gruppenpunkte.xlsx
+++ b/Semantics_Gruppenpunkte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Semantics and Verification of Software:</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Sheet 2</t>
+  </si>
+  <si>
+    <t>Sheet 3</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F414943-DD16-41B2-BCE0-82F99D2998E9}">
-  <dimension ref="C2:I32"/>
+  <dimension ref="C2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:J28"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,30 +405,33 @@
     <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>3</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>313294</v>
       </c>
@@ -435,8 +441,11 @@
       <c r="I8">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>334449</v>
       </c>
@@ -446,8 +455,11 @@
       <c r="I9">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>351804</v>
       </c>
@@ -457,8 +469,11 @@
       <c r="I10">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>318712</v>
       </c>
@@ -468,8 +483,11 @@
       <c r="I12">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>384051</v>
       </c>
@@ -479,8 +497,11 @@
       <c r="I13">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>384816</v>
       </c>
@@ -490,8 +511,11 @@
       <c r="I15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>382962</v>
       </c>
@@ -501,8 +525,11 @@
       <c r="I16">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>290510</v>
       </c>
@@ -512,8 +539,11 @@
       <c r="I18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>308799</v>
       </c>
@@ -523,8 +553,11 @@
       <c r="I19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>331621</v>
       </c>
@@ -534,8 +567,11 @@
       <c r="I20">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>323838</v>
       </c>
@@ -545,8 +581,11 @@
       <c r="I22">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>322364</v>
       </c>
@@ -556,8 +595,11 @@
       <c r="I23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>322706</v>
       </c>
@@ -567,8 +609,11 @@
       <c r="I24">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>331091</v>
       </c>
@@ -578,8 +623,11 @@
       <c r="I26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>345068</v>
       </c>
@@ -589,8 +637,11 @@
       <c r="I27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>379672</v>
       </c>
@@ -600,8 +651,11 @@
       <c r="I28">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>332143</v>
       </c>
@@ -611,8 +665,11 @@
       <c r="I30">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>334202</v>
       </c>
@@ -622,8 +679,11 @@
       <c r="I31">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>335124</v>
       </c>
@@ -632,6 +692,9 @@
       </c>
       <c r="I32">
         <v>6.5</v>
+      </c>
+      <c r="J32">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Semantics_Gruppenpunkte.xlsx
+++ b/Semantics_Gruppenpunkte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Semantics and Verification of Software:</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Sheet 3</t>
+  </si>
+  <si>
+    <t>Sheet 4</t>
   </si>
 </sst>
 </file>
@@ -393,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F414943-DD16-41B2-BCE0-82F99D2998E9}">
-  <dimension ref="C2:J32"/>
+  <dimension ref="C2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,17 +408,17 @@
     <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -425,13 +428,16 @@
       <c r="J5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>313294</v>
       </c>
@@ -444,8 +450,11 @@
       <c r="J8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>334449</v>
       </c>
@@ -458,8 +467,11 @@
       <c r="J9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>351804</v>
       </c>
@@ -472,8 +484,11 @@
       <c r="J10">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>318712</v>
       </c>
@@ -486,8 +501,11 @@
       <c r="J12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>384051</v>
       </c>
@@ -500,8 +518,11 @@
       <c r="J13">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>384816</v>
       </c>
@@ -514,8 +535,11 @@
       <c r="J15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>382962</v>
       </c>
@@ -528,8 +552,11 @@
       <c r="J16">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>290510</v>
       </c>
@@ -542,8 +569,11 @@
       <c r="J18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>308799</v>
       </c>
@@ -556,8 +586,11 @@
       <c r="J19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>331621</v>
       </c>
@@ -570,8 +603,11 @@
       <c r="J20">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>323838</v>
       </c>
@@ -584,8 +620,11 @@
       <c r="J22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>322364</v>
       </c>
@@ -598,8 +637,11 @@
       <c r="J23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>322706</v>
       </c>
@@ -612,8 +654,11 @@
       <c r="J24">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>331091</v>
       </c>
@@ -626,8 +671,11 @@
       <c r="J26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>345068</v>
       </c>
@@ -640,8 +688,11 @@
       <c r="J27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>379672</v>
       </c>
@@ -654,8 +705,11 @@
       <c r="J28">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>332143</v>
       </c>
@@ -668,8 +722,11 @@
       <c r="J30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>334202</v>
       </c>
@@ -682,8 +739,11 @@
       <c r="J31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>335124</v>
       </c>
@@ -694,6 +754,9 @@
         <v>6.5</v>
       </c>
       <c r="J32">
+        <v>9</v>
+      </c>
+      <c r="K32">
         <v>9</v>
       </c>
     </row>

--- a/Semantics_Gruppenpunkte.xlsx
+++ b/Semantics_Gruppenpunkte.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Semantics and Verification of Software:</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>Sheet 4</t>
+  </si>
+  <si>
+    <t>Sheet 5</t>
+  </si>
+  <si>
+    <t>Sheet 6</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Sheet 7</t>
+  </si>
+  <si>
+    <t>Gesamtpunkte</t>
+  </si>
+  <si>
+    <t>Gesamtprozent in %</t>
   </si>
 </sst>
 </file>
@@ -396,29 +414,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F414943-DD16-41B2-BCE0-82F99D2998E9}">
-  <dimension ref="C2:K32"/>
+  <dimension ref="C2:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:21" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>3</v>
       </c>
@@ -431,13 +451,28 @@
       <c r="K5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F8">
         <v>313294</v>
       </c>
@@ -453,8 +488,19 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <f>SUM(H8:S8)</f>
+        <v>31</v>
+      </c>
+      <c r="U8">
+        <f>T8/$T$34*100</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F9">
         <v>334449</v>
       </c>
@@ -470,8 +516,19 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ref="T9:T34" si="0">SUM(H9:S9)</f>
+        <v>31</v>
+      </c>
+      <c r="U9">
+        <f t="shared" ref="U9:U32" si="1">T9/$T$34*100</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F10">
         <v>351804</v>
       </c>
@@ -487,8 +544,19 @@
       <c r="K10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F12">
         <v>318712</v>
       </c>
@@ -504,8 +572,19 @@
       <c r="K12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F13">
         <v>384051</v>
       </c>
@@ -521,8 +600,19 @@
       <c r="K13">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>36.25</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F15">
         <v>384816</v>
       </c>
@@ -538,8 +628,19 @@
       <c r="K15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="F16">
         <v>382962</v>
       </c>
@@ -555,8 +656,19 @@
       <c r="K16">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>290510</v>
       </c>
@@ -572,8 +684,19 @@
       <c r="K18">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>308799</v>
       </c>
@@ -589,8 +712,19 @@
       <c r="K19">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>331621</v>
       </c>
@@ -606,8 +740,19 @@
       <c r="K20">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>323838</v>
       </c>
@@ -623,8 +768,19 @@
       <c r="K22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>322364</v>
       </c>
@@ -640,8 +796,19 @@
       <c r="K23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>322706</v>
       </c>
@@ -657,8 +824,19 @@
       <c r="K24">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>331091</v>
       </c>
@@ -674,8 +852,19 @@
       <c r="K26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>10</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>345068</v>
       </c>
@@ -691,8 +880,19 @@
       <c r="K27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>379672</v>
       </c>
@@ -708,8 +908,19 @@
       <c r="K28">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>332143</v>
       </c>
@@ -725,8 +936,19 @@
       <c r="K30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>334202</v>
       </c>
@@ -742,8 +964,19 @@
       <c r="K31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>10</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>335124</v>
       </c>
@@ -758,6 +991,45 @@
       </c>
       <c r="K32">
         <v>9</v>
+      </c>
+      <c r="L32">
+        <v>10</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="U34">
+        <f>T34/$T$34*100</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Semantics_Gruppenpunkte.xlsx
+++ b/Semantics_Gruppenpunkte.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="C2:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,13 +491,16 @@
       <c r="L8">
         <v>7</v>
       </c>
+      <c r="M8">
+        <v>5.5</v>
+      </c>
       <c r="T8">
         <f>SUM(H8:S8)</f>
-        <v>31</v>
+        <v>36.5</v>
       </c>
       <c r="U8">
         <f>T8/$T$34*100</f>
-        <v>62</v>
+        <v>60.833333333333329</v>
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
@@ -519,13 +522,16 @@
       <c r="L9">
         <v>7</v>
       </c>
+      <c r="M9">
+        <v>5.5</v>
+      </c>
       <c r="T9">
         <f t="shared" ref="T9:T34" si="0">SUM(H9:S9)</f>
-        <v>31</v>
+        <v>36.5</v>
       </c>
       <c r="U9">
         <f t="shared" ref="U9:U32" si="1">T9/$T$34*100</f>
-        <v>62</v>
+        <v>60.833333333333329</v>
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
@@ -547,13 +553,16 @@
       <c r="L10">
         <v>7</v>
       </c>
+      <c r="M10">
+        <v>5.5</v>
+      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>36.5</v>
       </c>
       <c r="U10">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>60.833333333333329</v>
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
@@ -575,13 +584,16 @@
       <c r="L12">
         <v>6</v>
       </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>36.25</v>
+        <v>43.25</v>
       </c>
       <c r="U12">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>72.083333333333329</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
@@ -603,13 +615,16 @@
       <c r="L13">
         <v>6</v>
       </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>36.25</v>
+        <v>43.25</v>
       </c>
       <c r="U13">
         <f t="shared" si="1"/>
-        <v>72.5</v>
+        <v>72.083333333333329</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
@@ -631,9 +646,12 @@
       <c r="L15">
         <v>8</v>
       </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U15">
         <f t="shared" si="1"/>
@@ -659,9 +677,12 @@
       <c r="L16">
         <v>8</v>
       </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U16">
         <f t="shared" si="1"/>
@@ -687,13 +708,16 @@
       <c r="L18">
         <v>2</v>
       </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U18">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="19" spans="6:21" x14ac:dyDescent="0.25">
@@ -715,13 +739,16 @@
       <c r="L19">
         <v>2</v>
       </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U19">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="20" spans="6:21" x14ac:dyDescent="0.25">
@@ -743,13 +770,16 @@
       <c r="L20">
         <v>2</v>
       </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="U20">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>68.333333333333329</v>
       </c>
     </row>
     <row r="22" spans="6:21" x14ac:dyDescent="0.25">
@@ -771,13 +801,16 @@
       <c r="L22">
         <v>10</v>
       </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U22">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="23" spans="6:21" x14ac:dyDescent="0.25">
@@ -799,13 +832,16 @@
       <c r="L23">
         <v>10</v>
       </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U23">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="24" spans="6:21" x14ac:dyDescent="0.25">
@@ -827,13 +863,16 @@
       <c r="L24">
         <v>10</v>
       </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="U24">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>66.666666666666657</v>
       </c>
     </row>
     <row r="26" spans="6:21" x14ac:dyDescent="0.25">
@@ -855,13 +894,16 @@
       <c r="L26">
         <v>10</v>
       </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U26">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="27" spans="6:21" x14ac:dyDescent="0.25">
@@ -883,13 +925,16 @@
       <c r="L27">
         <v>10</v>
       </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="U27">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="28" spans="6:21" x14ac:dyDescent="0.25">
@@ -911,13 +956,16 @@
       <c r="L28">
         <v>10</v>
       </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="U28">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="30" spans="6:21" x14ac:dyDescent="0.25">
@@ -939,13 +987,16 @@
       <c r="L30">
         <v>10</v>
       </c>
+      <c r="M30">
+        <v>8</v>
+      </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
       <c r="U30">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84.166666666666671</v>
       </c>
     </row>
     <row r="31" spans="6:21" x14ac:dyDescent="0.25">
@@ -967,13 +1018,16 @@
       <c r="L31">
         <v>10</v>
       </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
       <c r="U31">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84.166666666666671</v>
       </c>
     </row>
     <row r="32" spans="6:21" x14ac:dyDescent="0.25">
@@ -995,13 +1049,16 @@
       <c r="L32">
         <v>10</v>
       </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>42.5</v>
+        <v>50.5</v>
       </c>
       <c r="U32">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>84.166666666666671</v>
       </c>
     </row>
     <row r="34" spans="6:21" x14ac:dyDescent="0.25">
@@ -1023,9 +1080,12 @@
       <c r="L34">
         <v>10</v>
       </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
       <c r="T34">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="U34">
         <f>T34/$T$34*100</f>
